--- a/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.868442694794179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.035381043322014</v>
+        <v>-3.035381043322015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1546579843874972</v>
@@ -649,7 +649,7 @@
         <v>0.5575357320425925</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.291105058604954</v>
+        <v>-0.2911050586049541</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.819653634077401</v>
+        <v>-10.9957982372017</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.669075684281844</v>
+        <v>-6.97796750017525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.430659118130685</v>
+        <v>-2.008891276860651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.913722677176199</v>
+        <v>-7.076223382193477</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4653745911799124</v>
+        <v>-0.4974861883000443</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3811890489408443</v>
+        <v>-0.3692555891584616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2610976004837324</v>
+        <v>-0.2775986042815254</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5268098851992568</v>
+        <v>-0.52653628594534</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.70830851288309</v>
+        <v>4.542093246587299</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.27290145937681</v>
+        <v>8.181568954700424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.604483781596852</v>
+        <v>7.362056040756593</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5328193917032285</v>
+        <v>0.7966870541158646</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3245824158496056</v>
+        <v>0.3447595128629722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5087220257994512</v>
+        <v>0.7421965466543833</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.27673753700393</v>
+        <v>2.31329954950381</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08801165766461876</v>
+        <v>0.1149544843934294</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.290298254971611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.165692003489941</v>
+        <v>5.165692003489935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.04976807039460185</v>
@@ -749,7 +749,7 @@
         <v>0.09481445285489656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6374914747461656</v>
+        <v>0.6374914747461646</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.562307988924506</v>
+        <v>-5.22021195138828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3104312724467629</v>
+        <v>-0.0351676595169905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.583279885126748</v>
+        <v>-3.956294166424173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.510927505606685</v>
+        <v>1.513251593524518</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3267269692917741</v>
+        <v>-0.3237291049228858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0262414676572453</v>
+        <v>-0.01124909074783267</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2275998167591884</v>
+        <v>-0.2459635733775915</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1437900658065313</v>
+        <v>0.1486204361557505</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.310107054643407</v>
+        <v>4.380277301309939</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.556684982342531</v>
+        <v>9.808711719985983</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.844875565728549</v>
+        <v>6.259618934483642</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.619693735064747</v>
+        <v>8.350946266019688</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3828445379170212</v>
+        <v>0.3984114855128483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.04784301848118</v>
+        <v>1.104006645698206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6622431381430178</v>
+        <v>0.5597250553972559</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.370228443951192</v>
+        <v>1.320865864478424</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.354931324846598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.450281359738923</v>
+        <v>3.450281359738926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7899540705285701</v>
@@ -849,7 +849,7 @@
         <v>-0.1214211343001628</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3055977782099425</v>
+        <v>0.3055977782099427</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.07445194547176</v>
+        <v>2.747131193484883</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2216819127174428</v>
+        <v>-0.2106464110610745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.943675106705351</v>
+        <v>-5.727014156328321</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6374189459582462</v>
+        <v>-0.7845034570090994</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1442100503825458</v>
+        <v>0.1583590799884006</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01538542064854368</v>
+        <v>-0.01931119732964388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4511524024658767</v>
+        <v>-0.4402754138855561</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04719803180174839</v>
+        <v>-0.06424149947792133</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.99132643417649</v>
+        <v>16.55471832170629</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.83733475832919</v>
+        <v>13.24864920613642</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.380762736329075</v>
+        <v>3.848760300193756</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.197786720125064</v>
+        <v>7.656562837377829</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.704048353261401</v>
+        <v>1.704677688425091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9398966658008955</v>
+        <v>0.989616824550591</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3908167042591997</v>
+        <v>0.4563296181509244</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8029928776444549</v>
+        <v>0.8696192857664511</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.289730826538306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8067859779980493</v>
+        <v>0.8067859779980452</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3763683414751514</v>
@@ -949,7 +949,7 @@
         <v>0.2523428221745635</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06892047171318959</v>
+        <v>0.06892047171318921</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4564682702350735</v>
+        <v>-0.5601830933151076</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.292534947965897</v>
+        <v>-3.031665828045726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.428214168175679</v>
+        <v>-2.476687229487343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.029252596960202</v>
+        <v>-3.902737520643459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02734904150296778</v>
+        <v>-0.02744221152181948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1481828009126524</v>
+        <v>-0.1801646953446381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1573029039627052</v>
+        <v>-0.1531857104037936</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2759384274120477</v>
+        <v>-0.2657983068900809</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.01066078493817</v>
+        <v>12.3736222646602</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.626517254859319</v>
+        <v>8.586987109531155</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.779442435816659</v>
+        <v>8.617146678364707</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.832442616114177</v>
+        <v>4.754075888730023</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9008055961820238</v>
+        <v>0.9595988951552914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8975827063283064</v>
+        <v>0.7484781539269028</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8199829383166175</v>
+        <v>0.8339524326602918</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5362848395267761</v>
+        <v>0.5198553326759736</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.918861856728244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.747699736147247</v>
+        <v>9.747699736147245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5467125785681282</v>
@@ -1049,7 +1049,7 @@
         <v>0.2010384421142461</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9312613924635604</v>
+        <v>0.9312613924635601</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.738674807357973</v>
+        <v>-1.854692626650718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.978708914387219</v>
+        <v>-8.074761782976976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.321953627392177</v>
+        <v>-7.238763561126947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.887868671181924</v>
+        <v>4.74512758123003</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1796834763333312</v>
+        <v>-0.1787255373527665</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3657495646877519</v>
+        <v>-0.3646148052597379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3591803233556477</v>
+        <v>-0.3584780712226927</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.347827415737285</v>
+        <v>0.3834530205714992</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.00949076263625</v>
+        <v>11.24687324137876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.917051290505033</v>
+        <v>7.324863724012329</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.61536702605425</v>
+        <v>11.696157859721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.34315028372009</v>
+        <v>14.17928162742816</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.847840864651128</v>
+        <v>2.003927081430029</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5176959093423685</v>
+        <v>0.5447602843772538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.238756662759624</v>
+        <v>1.132304407535161</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.857978272990477</v>
+        <v>1.816531638302511</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-0.6766800144132834</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.845079222505315</v>
+        <v>-1.845079222505318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1810547604564353</v>
@@ -1149,7 +1149,7 @@
         <v>-0.0949630753507472</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1432639214981979</v>
+        <v>-0.1432639214981981</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-11.02336553246426</v>
+        <v>-10.13334119878897</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.565444158025558</v>
+        <v>2.579682056864529</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.853524965651837</v>
+        <v>-4.948642275611141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.189590591428484</v>
+        <v>-6.159446487638535</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4702894121851617</v>
+        <v>-0.4477019093498838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09771625363276874</v>
+        <v>0.177726278324763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6145231004743337</v>
+        <v>-0.5541350387958488</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3978598003984515</v>
+        <v>-0.4006733733295176</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.876430052335009</v>
+        <v>4.495776363402834</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.70413827793952</v>
+        <v>16.27881613479602</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.87367314910535</v>
+        <v>4.091916827992928</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.047995294905827</v>
+        <v>2.434548466651506</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2534657361281356</v>
+        <v>0.2945450971229517</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.637481738045506</v>
+        <v>1.961366707095728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8327800694245098</v>
+        <v>0.9741299709377766</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2059379434223175</v>
+        <v>0.2276732802358526</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.900486171016771</v>
+        <v>-5.047650075331068</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.6467104059536</v>
+        <v>-3.587531625889548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.336872811646319</v>
+        <v>-3.198279353960149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.126372430060769</v>
+        <v>-3.64493923958566</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2711080945704766</v>
+        <v>-0.2847903687474927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1692844277944987</v>
+        <v>-0.1668644836543799</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3360412662321643</v>
+        <v>-0.3183457814089484</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2769463973837225</v>
+        <v>-0.2448960627894261</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.395245641227207</v>
+        <v>4.01239372351387</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.342022363781448</v>
+        <v>5.639458231819487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.400574766305051</v>
+        <v>4.484372817125438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.275815732615552</v>
+        <v>3.499769334795468</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3425920961173526</v>
+        <v>0.3024638448283857</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3641924348324556</v>
+        <v>0.3254231261746307</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6815192306762716</v>
+        <v>0.7021394137549417</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.302520764502448</v>
+        <v>0.3432299459207114</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.208146858077328</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.586705575946729</v>
+        <v>1.586705575946726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6100721467590842</v>
@@ -1349,7 +1349,7 @@
         <v>0.01756659093079602</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2040218094809997</v>
+        <v>0.2040218094809993</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.39206673631371</v>
+        <v>1.350475724793786</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.232463131000889</v>
+        <v>-1.5817874536639</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.234087741339437</v>
+        <v>-3.443013673147535</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7889815979287144</v>
+        <v>-0.7577661813744478</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1425463469537687</v>
+        <v>0.1309558138142722</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09433746992141742</v>
+        <v>-0.1055262892780751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2386911410117837</v>
+        <v>-0.2563195622353637</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08978152634557365</v>
+        <v>-0.07532755458676431</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.810341867154527</v>
+        <v>8.646175990768267</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.720445649992395</v>
+        <v>6.481329616832262</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.752217443893887</v>
+        <v>3.977797271457981</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.91771442837839</v>
+        <v>4.386558963309091</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.453710873478002</v>
+        <v>1.355062380543204</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6212453885322418</v>
+        <v>0.6160140366247798</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3634700078958249</v>
+        <v>0.3878120029561485</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6218138948584414</v>
+        <v>0.7093371400203891</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>0.9852206273984185</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.698380610685284</v>
+        <v>1.698380610685282</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1870058092111553</v>
@@ -1449,7 +1449,7 @@
         <v>0.09251762888413907</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1637783572164557</v>
+        <v>0.1637783572164555</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6053769819514327</v>
+        <v>0.7020556268893853</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.244981163480755</v>
+        <v>1.460045708141212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5561242380246445</v>
+        <v>-0.6717334881397936</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3835506686462238</v>
+        <v>0.3437845836398181</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03987705408568106</v>
+        <v>0.04907701555416637</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07832719918473832</v>
+        <v>0.09282738395419812</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.05124799338702159</v>
+        <v>-0.05734064008407151</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.02943480569279436</v>
+        <v>0.03189793672993722</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.718921048671882</v>
+        <v>4.490708650265328</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.020594690290779</v>
+        <v>5.326666073536844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.714031362740656</v>
+        <v>2.674109301394278</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.039317474767353</v>
+        <v>3.012089146083443</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3765439869809626</v>
+        <v>0.3569383547833876</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3606222464956765</v>
+        <v>0.3819185586578226</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2810305492599869</v>
+        <v>0.2739284525834097</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.3159536535524473</v>
+        <v>0.3186190141955634</v>
       </c>
     </row>
     <row r="31">
